--- a/workspace/Health Facility Data/UtahHealth24_xlsx.xlsx
+++ b/workspace/Health Facility Data/UtahHealth24_xlsx.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9c1929351461b30c/Documents/internship/HICAHS/Data/HealthFac_PrioPop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9c1929351461b30c/Documents/internship/workspace/Health Facility Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5CA8E062-45E9-4EC9-A8DC-BBEF1B3BE706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{5CA8E062-45E9-4EC9-A8DC-BBEF1B3BE706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C538AC2E-17E8-4277-BA1A-89C1308779DF}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{F893E8D5-7F3E-4353-8353-B858F28181E1}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6151" uniqueCount="2595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6151" uniqueCount="2596">
   <si>
     <t>state</t>
   </si>
@@ -7806,6 +7806,9 @@
   </si>
   <si>
     <t>county</t>
+  </si>
+  <si>
+    <t>Hospitals</t>
   </si>
 </sst>
 </file>
@@ -35938,7 +35941,7 @@
   <dimension ref="A1:P26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U17" sqref="U17"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -35977,7 +35980,7 @@
         <v>13</v>
       </c>
       <c r="G1" t="s">
-        <v>14</v>
+        <v>2595</v>
       </c>
       <c r="H1" t="s">
         <v>15</v>
